--- a/Analyzed/try8/data_2010.xlsx
+++ b/Analyzed/try8/data_2010.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,72 +440,97 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>caseA_rank</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>caseC_rank</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>caseZ_rank</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Rank</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>caseA_rankdif</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>caseB_rankdif</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>caseC_rankdif</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>caseD_rankdif</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>caseX_rankdif</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>caseY_rankdif</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>caseZ_rankdif</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ACXZcomb</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>AXcomb</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>AZcomb</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>CXcomb</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CZcomb</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>XZcomb</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AZhapdif</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CZhapdif</t>
         </is>
       </c>
     </row>
@@ -540,13 +565,13 @@
         <v>53.15</v>
       </c>
       <c r="J2">
-        <v>503.8</v>
+        <v>595.8878100000001</v>
       </c>
       <c r="K2">
         <v>1386.711</v>
       </c>
       <c r="L2">
-        <v>542.01</v>
+        <v>692.2601</v>
       </c>
       <c r="M2">
         <v>65.67806827582113</v>
@@ -558,31 +583,31 @@
         <v>-90.84999999999999</v>
       </c>
       <c r="P2">
-        <v>560.6288670372367</v>
+        <v>738.5075369293111</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -594,13 +619,28 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD2">
         <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>2</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -634,13 +674,13 @@
         <v>57.31999999999999</v>
       </c>
       <c r="J3">
-        <v>503.6</v>
+        <v>605.24644</v>
       </c>
       <c r="K3">
         <v>1879.656</v>
       </c>
       <c r="L3">
-        <v>518.49</v>
+        <v>629.23</v>
       </c>
       <c r="M3">
         <v>60.83049644865749</v>
@@ -652,31 +692,31 @@
         <v>-85.06</v>
       </c>
       <c r="P3">
-        <v>417.9804008907066</v>
+        <v>544.9543200858647</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V3">
         <v>1</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -688,13 +728,28 @@
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>3</v>
+      </c>
+      <c r="AF3">
+        <v>2</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +783,13 @@
         <v>51.29</v>
       </c>
       <c r="J4">
-        <v>523.2</v>
+        <v>706.7067400000001</v>
       </c>
       <c r="K4">
         <v>1642.08</v>
       </c>
       <c r="L4">
-        <v>523.74</v>
+        <v>749.9891</v>
       </c>
       <c r="M4">
         <v>52.67535219816214</v>
@@ -746,32 +801,32 @@
         <v>-159.2</v>
       </c>
       <c r="P4">
-        <v>419.7307929523263</v>
+        <v>549.0285003754957</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
         <v>5</v>
       </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>2</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
       <c r="Y4">
         <v>1</v>
       </c>
@@ -782,13 +837,28 @@
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>2</v>
+      </c>
+      <c r="AI4">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -822,13 +892,13 @@
         <v>51.43</v>
       </c>
       <c r="J5">
-        <v>530.4</v>
+        <v>806.09186</v>
       </c>
       <c r="K5">
         <v>1173.839</v>
       </c>
       <c r="L5">
-        <v>557.13</v>
+        <v>950.4446</v>
       </c>
       <c r="M5">
         <v>59.67543826991535</v>
@@ -840,49 +910,64 @@
         <v>-204.68</v>
       </c>
       <c r="P5">
-        <v>377.4018748232559</v>
+        <v>492.412489275402</v>
       </c>
       <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
         <v>4</v>
       </c>
-      <c r="R5">
-        <v>3</v>
-      </c>
-      <c r="S5">
-        <v>3</v>
-      </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
       <c r="U5">
         <v>3</v>
       </c>
       <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
         <v>4</v>
       </c>
-      <c r="W5">
+      <c r="Z5">
         <v>4</v>
       </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD5">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AE5">
+        <v>3</v>
+      </c>
+      <c r="AF5">
+        <v>3</v>
+      </c>
+      <c r="AG5">
+        <v>3</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -916,13 +1001,13 @@
         <v>32.96</v>
       </c>
       <c r="J6">
-        <v>454</v>
+        <v>507.1364</v>
       </c>
       <c r="K6">
         <v>1709.778</v>
       </c>
       <c r="L6">
-        <v>460.11</v>
+        <v>536.4394</v>
       </c>
       <c r="M6">
         <v>66.27104670484444</v>
@@ -934,31 +1019,31 @@
         <v>-98.44</v>
       </c>
       <c r="P6">
-        <v>401.8995274019546</v>
+        <v>524.3358408201007</v>
       </c>
       <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
         <v>5</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>3</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
       <c r="U6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W6">
         <v>2</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -967,16 +1052,31 @@
         <v>2</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>2</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1010,13 +1110,13 @@
         <v>40.03</v>
       </c>
       <c r="J7">
-        <v>479.4</v>
+        <v>584.22159</v>
       </c>
       <c r="K7">
         <v>1281.603</v>
       </c>
       <c r="L7">
-        <v>530.46</v>
+        <v>723.772</v>
       </c>
       <c r="M7">
         <v>63.01561723935215</v>
@@ -1028,49 +1128,64 @@
         <v>-188.65</v>
       </c>
       <c r="P7">
-        <v>336.363278420075</v>
+        <v>439.2245900041104</v>
       </c>
       <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>8</v>
+      </c>
+      <c r="T7">
         <v>6</v>
       </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
       <c r="U7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X7">
         <v>2</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <v>1</v>
       </c>
       <c r="AD7">
         <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>2</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1104,13 +1219,13 @@
         <v>32.61</v>
       </c>
       <c r="J8">
-        <v>431.8</v>
+        <v>506.58903</v>
       </c>
       <c r="K8">
         <v>921.587</v>
       </c>
       <c r="L8">
-        <v>455.91</v>
+        <v>573.1656</v>
       </c>
       <c r="M8">
         <v>60.28419101635071</v>
@@ -1122,49 +1237,64 @@
         <v>-118.82</v>
       </c>
       <c r="P8">
-        <v>353.9588613275182</v>
+        <v>458.8516077088416</v>
       </c>
       <c r="Q8">
         <v>7</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
         <v>1</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>2</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1198,13 +1328,13 @@
         <v>18.67</v>
       </c>
       <c r="J9">
-        <v>416</v>
+        <v>399.40738</v>
       </c>
       <c r="K9">
         <v>1331.694</v>
       </c>
       <c r="L9">
-        <v>429.24</v>
+        <v>410.6123</v>
       </c>
       <c r="M9">
         <v>73.75570596072092</v>
@@ -1216,40 +1346,40 @@
         <v>-186.4</v>
       </c>
       <c r="P9">
-        <v>340.5073192967244</v>
+        <v>447.2058045475314</v>
       </c>
       <c r="Q9">
         <v>8</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>7</v>
       </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>2</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1258,6 +1388,21 @@
         <v>0</v>
       </c>
       <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
         <v>0</v>
       </c>
     </row>
